--- a/data_quarter/zb/文化/规模以上文化及相关产业企业营业收入/按产业和领域分规模以上文化及相关产业企业营业收入.xlsx
+++ b/data_quarter/zb/文化/规模以上文化及相关产业企业营业收入/按产业和领域分规模以上文化及相关产业企业营业收入.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,11 +484,36 @@
           <t>规模以上文化相关领域企业营业收入_累计增长</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>规模以上文化制造业企业营业收入</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>规模以上文化批发和零售业企业营业收入</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>规模以上文化服务业企业营业收入</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>规模以上文化核心领域企业营业收入</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>规模以上文化相关领域企业营业收入</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2020年第一季度</t>
+          <t>2020年A</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -520,86 +545,131 @@
       </c>
       <c r="K2" t="n">
         <v>-18.4</v>
+      </c>
+      <c r="L2" t="n">
+        <v>6596</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2648</v>
+      </c>
+      <c r="N2" t="n">
+        <v>7645</v>
+      </c>
+      <c r="O2" t="n">
+        <v>10305</v>
+      </c>
+      <c r="P2" t="n">
+        <v>6584</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2020年第三季度</t>
+          <t>2020年B</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25566</v>
+        <v>15383</v>
       </c>
       <c r="C3" t="n">
-        <v>-3.8</v>
+        <v>-9.5</v>
       </c>
       <c r="D3" t="n">
-        <v>10122</v>
+        <v>6216</v>
       </c>
       <c r="E3" t="n">
-        <v>-10</v>
+        <v>-17.7</v>
       </c>
       <c r="F3" t="n">
-        <v>30430</v>
+        <v>18598</v>
       </c>
       <c r="G3" t="n">
-        <v>6</v>
+        <v>1.7</v>
       </c>
       <c r="H3" t="n">
-        <v>40423</v>
+        <v>24715</v>
       </c>
       <c r="I3" t="n">
-        <v>1.5</v>
+        <v>-4</v>
       </c>
       <c r="J3" t="n">
-        <v>25696</v>
+        <v>15480</v>
       </c>
       <c r="K3" t="n">
-        <v>-3.8</v>
+        <v>-9.4</v>
+      </c>
+      <c r="L3" t="n">
+        <v>8787</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3568</v>
+      </c>
+      <c r="N3" t="n">
+        <v>10953</v>
+      </c>
+      <c r="O3" t="n">
+        <v>14410</v>
+      </c>
+      <c r="P3" t="n">
+        <v>8896</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2020年第二季度</t>
+          <t>2020年C</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15383</v>
+        <v>25566</v>
       </c>
       <c r="C4" t="n">
-        <v>-9.5</v>
+        <v>-3.8</v>
       </c>
       <c r="D4" t="n">
-        <v>6216</v>
+        <v>10122</v>
       </c>
       <c r="E4" t="n">
-        <v>-17.7</v>
+        <v>-10</v>
       </c>
       <c r="F4" t="n">
-        <v>18598</v>
+        <v>30430</v>
       </c>
       <c r="G4" t="n">
-        <v>1.7</v>
+        <v>6</v>
       </c>
       <c r="H4" t="n">
-        <v>24715</v>
+        <v>40423</v>
       </c>
       <c r="I4" t="n">
-        <v>-4</v>
+        <v>1.5</v>
       </c>
       <c r="J4" t="n">
-        <v>15480</v>
+        <v>25696</v>
       </c>
       <c r="K4" t="n">
-        <v>-9.4</v>
+        <v>-3.8</v>
+      </c>
+      <c r="L4" t="n">
+        <v>10183</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3906</v>
+      </c>
+      <c r="N4" t="n">
+        <v>11832</v>
+      </c>
+      <c r="O4" t="n">
+        <v>15708</v>
+      </c>
+      <c r="P4" t="n">
+        <v>10216</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2020年第四季度</t>
+          <t>2020年D</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -631,12 +701,27 @@
       </c>
       <c r="K5" t="n">
         <v>-0.1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>11812</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5051</v>
+      </c>
+      <c r="N5" t="n">
+        <v>15534</v>
+      </c>
+      <c r="O5" t="n">
+        <v>19872</v>
+      </c>
+      <c r="P5" t="n">
+        <v>12524</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2021年第一季度</t>
+          <t>2021年A</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -668,86 +753,131 @@
       </c>
       <c r="K6" t="n">
         <v>41.1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>9124</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4383</v>
+      </c>
+      <c r="N6" t="n">
+        <v>11991</v>
+      </c>
+      <c r="O6" t="n">
+        <v>15899</v>
+      </c>
+      <c r="P6" t="n">
+        <v>9599</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2021年第三季度</t>
+          <t>2021年B</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30950</v>
+        <v>19585</v>
       </c>
       <c r="C7" t="n">
-        <v>17.7</v>
+        <v>26</v>
       </c>
       <c r="D7" t="n">
-        <v>13561</v>
+        <v>8960</v>
       </c>
       <c r="E7" t="n">
-        <v>26</v>
+        <v>37.1</v>
       </c>
       <c r="F7" t="n">
-        <v>39693</v>
+        <v>25835</v>
       </c>
       <c r="G7" t="n">
-        <v>23.7</v>
+        <v>31.8</v>
       </c>
       <c r="H7" t="n">
-        <v>51911</v>
+        <v>33905</v>
       </c>
       <c r="I7" t="n">
-        <v>22.9</v>
+        <v>31.4</v>
       </c>
       <c r="J7" t="n">
-        <v>32294</v>
+        <v>20476</v>
       </c>
       <c r="K7" t="n">
-        <v>20</v>
+        <v>28.8</v>
+      </c>
+      <c r="L7" t="n">
+        <v>10461</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4577</v>
+      </c>
+      <c r="N7" t="n">
+        <v>13844</v>
+      </c>
+      <c r="O7" t="n">
+        <v>18006</v>
+      </c>
+      <c r="P7" t="n">
+        <v>10877</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2021年第二季度</t>
+          <t>2021年C</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19585</v>
+        <v>30950</v>
       </c>
       <c r="C8" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="D8" t="n">
+        <v>13561</v>
+      </c>
+      <c r="E8" t="n">
         <v>26</v>
       </c>
-      <c r="D8" t="n">
-        <v>8960</v>
-      </c>
-      <c r="E8" t="n">
-        <v>37.1</v>
-      </c>
       <c r="F8" t="n">
-        <v>25835</v>
+        <v>39693</v>
       </c>
       <c r="G8" t="n">
-        <v>31.8</v>
+        <v>23.7</v>
       </c>
       <c r="H8" t="n">
-        <v>33905</v>
+        <v>51911</v>
       </c>
       <c r="I8" t="n">
-        <v>31.4</v>
+        <v>22.9</v>
       </c>
       <c r="J8" t="n">
-        <v>20476</v>
+        <v>32294</v>
       </c>
       <c r="K8" t="n">
-        <v>28.8</v>
+        <v>20</v>
+      </c>
+      <c r="L8" t="n">
+        <v>11365</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4601</v>
+      </c>
+      <c r="N8" t="n">
+        <v>13858</v>
+      </c>
+      <c r="O8" t="n">
+        <v>18006</v>
+      </c>
+      <c r="P8" t="n">
+        <v>11818</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2021年第四季度</t>
+          <t>2021年D</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -779,6 +909,21 @@
       </c>
       <c r="K9" t="n">
         <v>15.2</v>
+      </c>
+      <c r="L9" t="n">
+        <v>13080</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5218</v>
+      </c>
+      <c r="N9" t="n">
+        <v>16562</v>
+      </c>
+      <c r="O9" t="n">
+        <v>21347</v>
+      </c>
+      <c r="P9" t="n">
+        <v>13512</v>
       </c>
     </row>
   </sheetData>

--- a/data_quarter/zb/文化/规模以上文化及相关产业企业营业收入/按产业和领域分规模以上文化及相关产业企业营业收入.xlsx
+++ b/data_quarter/zb/文化/规模以上文化及相关产业企业营业收入/按产业和领域分规模以上文化及相关产业企业营业收入.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,446 +484,484 @@
           <t>规模以上文化相关领域企业营业收入_累计增长</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>规模以上文化制造业企业营业收入</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>规模以上文化批发和零售业企业营业收入</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>规模以上文化服务业企业营业收入</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>规模以上文化核心领域企业营业收入</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>规模以上文化相关领域企业营业收入</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2020年A</t>
+          <t>2018年D</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6596</v>
+        <v>38074</v>
       </c>
       <c r="C2" t="n">
-        <v>-18.5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>2648</v>
+        <v>16728</v>
       </c>
       <c r="E2" t="n">
-        <v>-27.3</v>
+        <v>4.5</v>
       </c>
       <c r="F2" t="n">
-        <v>7645</v>
+        <v>34454</v>
       </c>
       <c r="G2" t="n">
-        <v>-2.9</v>
+        <v>15.4</v>
       </c>
       <c r="H2" t="n">
-        <v>10305</v>
+        <v>49502</v>
       </c>
       <c r="I2" t="n">
-        <v>-10.7</v>
+        <v>12.6</v>
       </c>
       <c r="J2" t="n">
-        <v>6584</v>
-      </c>
-      <c r="K2" t="n">
-        <v>-18.4</v>
-      </c>
-      <c r="L2" t="n">
-        <v>6596</v>
-      </c>
-      <c r="M2" t="n">
-        <v>2648</v>
-      </c>
-      <c r="N2" t="n">
-        <v>7645</v>
-      </c>
-      <c r="O2" t="n">
-        <v>10305</v>
-      </c>
-      <c r="P2" t="n">
-        <v>6584</v>
-      </c>
+        <v>39755</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2020年B</t>
+          <t>2019年A</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15383</v>
+        <v>8400</v>
       </c>
       <c r="C3" t="n">
-        <v>-9.5</v>
+        <v>5.2</v>
       </c>
       <c r="D3" t="n">
-        <v>6216</v>
+        <v>3588</v>
       </c>
       <c r="E3" t="n">
-        <v>-17.7</v>
+        <v>5.8</v>
       </c>
       <c r="F3" t="n">
-        <v>18598</v>
+        <v>7812</v>
       </c>
       <c r="G3" t="n">
-        <v>1.7</v>
+        <v>13.2</v>
       </c>
       <c r="H3" t="n">
-        <v>24715</v>
+        <v>11592</v>
       </c>
       <c r="I3" t="n">
-        <v>-4</v>
+        <v>12</v>
       </c>
       <c r="J3" t="n">
-        <v>15480</v>
+        <v>8207</v>
       </c>
       <c r="K3" t="n">
-        <v>-9.4</v>
-      </c>
-      <c r="L3" t="n">
-        <v>8787</v>
-      </c>
-      <c r="M3" t="n">
-        <v>3568</v>
-      </c>
-      <c r="N3" t="n">
-        <v>10953</v>
-      </c>
-      <c r="O3" t="n">
-        <v>14410</v>
-      </c>
-      <c r="P3" t="n">
-        <v>8896</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2020年C</t>
+          <t>2019年C</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>25566</v>
+        <v>26569</v>
       </c>
       <c r="C4" t="n">
-        <v>-3.8</v>
+        <v>4.2</v>
       </c>
       <c r="D4" t="n">
-        <v>10122</v>
+        <v>9983</v>
       </c>
       <c r="E4" t="n">
-        <v>-10</v>
+        <v>5.4</v>
       </c>
       <c r="F4" t="n">
-        <v>30430</v>
+        <v>25636</v>
       </c>
       <c r="G4" t="n">
-        <v>6</v>
+        <v>12.4</v>
       </c>
       <c r="H4" t="n">
-        <v>40423</v>
+        <v>37065</v>
       </c>
       <c r="I4" t="n">
-        <v>1.5</v>
+        <v>10.8</v>
       </c>
       <c r="J4" t="n">
-        <v>25696</v>
+        <v>25122</v>
       </c>
       <c r="K4" t="n">
-        <v>-3.8</v>
-      </c>
-      <c r="L4" t="n">
-        <v>10183</v>
-      </c>
-      <c r="M4" t="n">
-        <v>3906</v>
-      </c>
-      <c r="N4" t="n">
-        <v>11832</v>
-      </c>
-      <c r="O4" t="n">
-        <v>15708</v>
-      </c>
-      <c r="P4" t="n">
-        <v>10216</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2020年D</t>
+          <t>2019年B</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>37378</v>
+        <v>17012</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.9</v>
+        <v>4.4</v>
       </c>
       <c r="D5" t="n">
-        <v>15173</v>
+        <v>6934</v>
       </c>
       <c r="E5" t="n">
-        <v>-4.5</v>
+        <v>5.5</v>
       </c>
       <c r="F5" t="n">
-        <v>45964</v>
+        <v>16606</v>
       </c>
       <c r="G5" t="n">
-        <v>7.5</v>
+        <v>13</v>
       </c>
       <c r="H5" t="n">
-        <v>60295</v>
+        <v>24391</v>
       </c>
       <c r="I5" t="n">
-        <v>3.8</v>
+        <v>11.5</v>
       </c>
       <c r="J5" t="n">
-        <v>38220</v>
+        <v>16161</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>11812</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5051</v>
-      </c>
-      <c r="N5" t="n">
-        <v>15534</v>
-      </c>
-      <c r="O5" t="n">
-        <v>19872</v>
-      </c>
-      <c r="P5" t="n">
-        <v>12524</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2021年A</t>
+          <t>2019年D</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9124</v>
+        <v>36739</v>
       </c>
       <c r="C6" t="n">
-        <v>36</v>
+        <v>3.2</v>
       </c>
       <c r="D6" t="n">
-        <v>4383</v>
+        <v>14726</v>
       </c>
       <c r="E6" t="n">
-        <v>51.7</v>
+        <v>4.4</v>
       </c>
       <c r="F6" t="n">
-        <v>11991</v>
+        <v>35159</v>
       </c>
       <c r="G6" t="n">
-        <v>39.9</v>
+        <v>12.4</v>
       </c>
       <c r="H6" t="n">
-        <v>15899</v>
+        <v>50471</v>
       </c>
       <c r="I6" t="n">
-        <v>39.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J6" t="n">
-        <v>9599</v>
+        <v>36153</v>
       </c>
       <c r="K6" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="L6" t="n">
-        <v>9124</v>
-      </c>
-      <c r="M6" t="n">
-        <v>4383</v>
-      </c>
-      <c r="N6" t="n">
-        <v>11991</v>
-      </c>
-      <c r="O6" t="n">
-        <v>15899</v>
-      </c>
-      <c r="P6" t="n">
-        <v>9599</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2021年B</t>
+          <t>2020年A</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19585</v>
+        <v>6596</v>
       </c>
       <c r="C7" t="n">
-        <v>26</v>
+        <v>-18.5</v>
       </c>
       <c r="D7" t="n">
-        <v>8960</v>
+        <v>2648</v>
       </c>
       <c r="E7" t="n">
-        <v>37.1</v>
+        <v>-27.3</v>
       </c>
       <c r="F7" t="n">
-        <v>25835</v>
+        <v>7645</v>
       </c>
       <c r="G7" t="n">
-        <v>31.8</v>
+        <v>-2.9</v>
       </c>
       <c r="H7" t="n">
-        <v>33905</v>
+        <v>10305</v>
       </c>
       <c r="I7" t="n">
-        <v>31.4</v>
+        <v>-10.7</v>
       </c>
       <c r="J7" t="n">
-        <v>20476</v>
+        <v>6584</v>
       </c>
       <c r="K7" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L7" t="n">
-        <v>10461</v>
-      </c>
-      <c r="M7" t="n">
-        <v>4577</v>
-      </c>
-      <c r="N7" t="n">
-        <v>13844</v>
-      </c>
-      <c r="O7" t="n">
-        <v>18006</v>
-      </c>
-      <c r="P7" t="n">
-        <v>10877</v>
+        <v>-18.4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2021年C</t>
+          <t>2020年C</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>30950</v>
+        <v>25566</v>
       </c>
       <c r="C8" t="n">
-        <v>17.7</v>
+        <v>-3.8</v>
       </c>
       <c r="D8" t="n">
-        <v>13561</v>
+        <v>10122</v>
       </c>
       <c r="E8" t="n">
-        <v>26</v>
+        <v>-10</v>
       </c>
       <c r="F8" t="n">
-        <v>39693</v>
+        <v>30430</v>
       </c>
       <c r="G8" t="n">
-        <v>23.7</v>
+        <v>6</v>
       </c>
       <c r="H8" t="n">
-        <v>51911</v>
+        <v>40423</v>
       </c>
       <c r="I8" t="n">
-        <v>22.9</v>
+        <v>1.5</v>
       </c>
       <c r="J8" t="n">
-        <v>32294</v>
+        <v>25696</v>
       </c>
       <c r="K8" t="n">
-        <v>20</v>
-      </c>
-      <c r="L8" t="n">
-        <v>11365</v>
-      </c>
-      <c r="M8" t="n">
-        <v>4601</v>
-      </c>
-      <c r="N8" t="n">
-        <v>13858</v>
-      </c>
-      <c r="O8" t="n">
-        <v>18006</v>
-      </c>
-      <c r="P8" t="n">
-        <v>11818</v>
+        <v>-3.8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
+          <t>2020年B</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>15383</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-9.5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>6216</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-17.7</v>
+      </c>
+      <c r="F9" t="n">
+        <v>18598</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H9" t="n">
+        <v>24715</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-4</v>
+      </c>
+      <c r="J9" t="n">
+        <v>15480</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-9.4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>2020年D</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>37378</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="D10" t="n">
+        <v>15173</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-4.5</v>
+      </c>
+      <c r="F10" t="n">
+        <v>45964</v>
+      </c>
+      <c r="G10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H10" t="n">
+        <v>60295</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J10" t="n">
+        <v>38220</v>
+      </c>
+      <c r="K10" t="n">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>2021年A</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>9124</v>
+      </c>
+      <c r="C11" t="n">
+        <v>36</v>
+      </c>
+      <c r="D11" t="n">
+        <v>4383</v>
+      </c>
+      <c r="E11" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="F11" t="n">
+        <v>11991</v>
+      </c>
+      <c r="G11" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="H11" t="n">
+        <v>15899</v>
+      </c>
+      <c r="I11" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="J11" t="n">
+        <v>9599</v>
+      </c>
+      <c r="K11" t="n">
+        <v>41.1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>2021年C</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>30950</v>
+      </c>
+      <c r="C12" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="D12" t="n">
+        <v>13561</v>
+      </c>
+      <c r="E12" t="n">
+        <v>26</v>
+      </c>
+      <c r="F12" t="n">
+        <v>39693</v>
+      </c>
+      <c r="G12" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="H12" t="n">
+        <v>51911</v>
+      </c>
+      <c r="I12" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="J12" t="n">
+        <v>32294</v>
+      </c>
+      <c r="K12" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>2021年B</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>19585</v>
+      </c>
+      <c r="C13" t="n">
+        <v>26</v>
+      </c>
+      <c r="D13" t="n">
+        <v>8960</v>
+      </c>
+      <c r="E13" t="n">
+        <v>37.1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>25835</v>
+      </c>
+      <c r="G13" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="H13" t="n">
+        <v>33905</v>
+      </c>
+      <c r="I13" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="J13" t="n">
+        <v>20476</v>
+      </c>
+      <c r="K13" t="n">
+        <v>28.8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
           <t>2021年D</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B14" t="n">
         <v>44030</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C14" t="n">
         <v>14.7</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D14" t="n">
         <v>18779</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E14" t="n">
         <v>18.2</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F14" t="n">
         <v>56255</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G14" t="n">
         <v>16.3</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H14" t="n">
         <v>73258</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I14" t="n">
         <v>16.5</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J14" t="n">
         <v>45806</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K14" t="n">
         <v>15.2</v>
-      </c>
-      <c r="L9" t="n">
-        <v>13080</v>
-      </c>
-      <c r="M9" t="n">
-        <v>5218</v>
-      </c>
-      <c r="N9" t="n">
-        <v>16562</v>
-      </c>
-      <c r="O9" t="n">
-        <v>21347</v>
-      </c>
-      <c r="P9" t="n">
-        <v>13512</v>
       </c>
     </row>
   </sheetData>
